--- a/BasicMod-master/boss.xlsx
+++ b/BasicMod-master/boss.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>祥子的幻影</t>
   </si>
@@ -41,6 +41,60 @@
   </si>
   <si>
     <t>塞2诅咒</t>
+  </si>
+  <si>
+    <t>三角初华</t>
+  </si>
+  <si>
+    <t>一起迷失 打击</t>
+  </si>
+  <si>
+    <t>压轴</t>
+  </si>
+  <si>
+    <t>获得20层闪耀</t>
+  </si>
+  <si>
+    <t>领域展开 重女</t>
+  </si>
+  <si>
+    <t>压轴 真奈的守护</t>
+  </si>
+  <si>
+    <t>真奈的守护</t>
+  </si>
+  <si>
+    <t>获得闪耀层数3倍的格挡</t>
+  </si>
+  <si>
+    <t>光与影 需要爱音</t>
+  </si>
+  <si>
+    <t>光与影 Sumimi</t>
+  </si>
+  <si>
+    <t>sumimi</t>
+  </si>
+  <si>
+    <t>造成2点伤害，每有一层闪耀重复一次</t>
+  </si>
+  <si>
+    <t>偏离世界 打击</t>
+  </si>
+  <si>
+    <t>白月光 传达心意</t>
+  </si>
+  <si>
+    <t>反转 光与影</t>
+  </si>
+  <si>
+    <t>光与影 反转</t>
+  </si>
+  <si>
+    <t>领域展开，偏离世界，传达心意用过就改成打击</t>
+  </si>
+  <si>
+    <t>300血，每受到100点伤害强制结束你的回合</t>
   </si>
 </sst>
 </file>
@@ -979,18 +1033,19 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelRow="7" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="14.8181818181818" customWidth="1"/>
+    <col min="1" max="1" width="21.2727272727273" customWidth="1"/>
     <col min="2" max="2" width="73.8181818181818" customWidth="1"/>
     <col min="3" max="3" width="20.0909090909091" customWidth="1"/>
-    <col min="4" max="6" width="19.0909090909091" customWidth="1"/>
+    <col min="4" max="4" width="41.3636363636364" customWidth="1"/>
+    <col min="5" max="6" width="19.0909090909091" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
@@ -1034,6 +1089,76 @@
         <v>8</v>
       </c>
     </row>
+    <row r="15" spans="1:1">
+      <c r="A15" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" t="s">
+        <v>11</v>
+      </c>
+      <c r="D16" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" t="s">
+        <v>13</v>
+      </c>
+      <c r="B17" t="s">
+        <v>14</v>
+      </c>
+      <c r="C17" t="s">
+        <v>15</v>
+      </c>
+      <c r="D17" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18" t="s">
+        <v>19</v>
+      </c>
+      <c r="D18" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" t="s">
+        <v>21</v>
+      </c>
+      <c r="B19" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="21" spans="3:3">
+      <c r="C21" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="22" spans="3:3">
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/BasicMod-master/boss.xlsx
+++ b/BasicMod-master/boss.xlsx
@@ -55,7 +55,7 @@
     <t>获得20层闪耀</t>
   </si>
   <si>
-    <t>领域展开 重女</t>
+    <t>领域展开 想永远和你在一起</t>
   </si>
   <si>
     <t>压轴 真奈的守护</t>
@@ -1036,7 +1036,7 @@
   <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelCol="3"/>

--- a/BasicMod-master/boss.xlsx
+++ b/BasicMod-master/boss.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>祥子的幻影</t>
   </si>
@@ -70,22 +70,19 @@
     <t>光与影 需要爱音</t>
   </si>
   <si>
-    <t>光与影 Sumimi</t>
-  </si>
-  <si>
-    <t>sumimi</t>
-  </si>
-  <si>
-    <t>造成2点伤害，每有一层闪耀重复一次</t>
+    <t>双月 光与影</t>
+  </si>
+  <si>
+    <t>双月</t>
+  </si>
+  <si>
+    <t>造成闪耀层数2倍的伤害，获得2倍的格挡</t>
   </si>
   <si>
     <t>偏离世界 打击</t>
   </si>
   <si>
-    <t>白月光 传达心意</t>
-  </si>
-  <si>
-    <t>反转 光与影</t>
+    <t>甜甜圈 传达心意</t>
   </si>
   <si>
     <t>光与影 反转</t>
@@ -1036,7 +1033,7 @@
   <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelCol="3"/>
@@ -1141,22 +1138,19 @@
         <v>22</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
-      <c r="A20" t="s">
+    <row r="20" spans="2:2">
+      <c r="B20" t="s">
         <v>23</v>
-      </c>
-      <c r="B20" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="21" spans="3:3">
       <c r="C21" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="22" spans="3:3">
       <c r="C22" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/BasicMod-master/boss.xlsx
+++ b/BasicMod-master/boss.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>祥子的幻影</t>
   </si>
@@ -82,10 +82,13 @@
     <t>偏离世界 打击</t>
   </si>
   <si>
-    <t>甜甜圈 传达心意</t>
+    <t>甜甜圈 防御</t>
   </si>
   <si>
     <t>光与影 反转</t>
+  </si>
+  <si>
+    <t>以诗代歌 传达心意</t>
   </si>
   <si>
     <t>领域展开，偏离世界，传达心意用过就改成打击</t>
@@ -1033,7 +1036,7 @@
   <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelCol="3"/>
@@ -1143,14 +1146,17 @@
         <v>23</v>
       </c>
     </row>
-    <row r="21" spans="3:3">
+    <row r="21" spans="2:3">
+      <c r="B21" t="s">
+        <v>24</v>
+      </c>
       <c r="C21" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="22" spans="3:3">
       <c r="C22" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
